--- a/document/excel/A2.xlsx
+++ b/document/excel/A2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -179,24 +197,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,52 +498,52 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="J1" s="12" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="J1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="12"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="I2" s="13" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="I2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
       <c r="J4" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="17.399999999999999">
-      <c r="E6" s="9" t="s">
+    <row r="6" spans="1:12" ht="18.75">
+      <c r="E6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" ht="17.399999999999999">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75">
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="I7" s="1" t="s">
@@ -556,234 +556,213 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="9"/>
+      <c r="I17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="4" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A26" s="5" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="4" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C12:L12"/>
     <mergeCell ref="D27:L27"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:B26"/>
@@ -797,9 +776,30 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -809,7 +809,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -821,7 +821,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/document/excel/A2.xlsx
+++ b/document/excel/A2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,40 +163,44 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,271 +499,271 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="D25" sqref="D25:L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="J1" s="12" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="12"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="I2" s="13" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="J4" s="2"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.399999999999999">
-      <c r="E6" s="9" t="s">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75">
+      <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" ht="17.399999999999999">
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="I7" s="1" t="s">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="I7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="4" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A26" s="5" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="4" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -799,7 +803,7 @@
     <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -809,7 +813,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -821,7 +825,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
